--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,99 +40,120 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>hell</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>pressure</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>cancelled</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>sick</t>
+    <t>shame</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>risk</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -166,111 +187,126 @@
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>friends</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>ready</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
@@ -280,28 +316,31 @@
     <t>helping</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>give</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
     <t>keep</t>
   </si>
   <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>amp</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>shopping</t>
   </si>
   <si>
     <t>grocery</t>
@@ -662,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,10 +709,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -731,13 +770,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -749,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K3">
-        <v>0.9152542372881356</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -773,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -781,13 +820,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7945205479452054</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>232</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>232</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -799,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -823,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -831,38 +870,38 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7931034482758621</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="L5">
         <v>23</v>
       </c>
-      <c r="D5">
+      <c r="M5">
         <v>23</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5">
-        <v>0.8833333333333333</v>
-      </c>
-      <c r="L5">
-        <v>106</v>
-      </c>
-      <c r="M5">
-        <v>106</v>
-      </c>
       <c r="N5">
         <v>1</v>
       </c>
@@ -873,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -881,13 +920,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -899,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -931,13 +970,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7777777777777778</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>237</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>237</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -949,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -973,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -981,13 +1020,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7692307692307693</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -999,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K8">
-        <v>0.825065274151436</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L8">
-        <v>316</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>316</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1023,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>67</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1031,13 +1070,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7666666666666667</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1049,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K9">
         <v>0.8113207547169812</v>
@@ -1081,13 +1120,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6956521739130435</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1099,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K10">
-        <v>0.8076923076923077</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>306</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>306</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1123,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1131,13 +1170,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6842105263157895</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1149,19 +1188,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K11">
-        <v>0.80625</v>
+        <v>0.78125</v>
       </c>
       <c r="L11">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1173,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1181,13 +1220,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6842105263157895</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1199,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K12">
-        <v>0.7804878048780488</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1223,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1231,13 +1270,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6486486486486487</v>
+        <v>0.7</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1249,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1273,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1281,13 +1320,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1299,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K14">
-        <v>0.7758620689655172</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1323,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1331,13 +1370,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5925925925925926</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C15">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1349,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K15">
-        <v>0.7746478873239436</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1373,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1381,13 +1420,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5666666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1399,19 +1438,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K16">
-        <v>0.7578125</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L16">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="M16">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1423,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1431,13 +1470,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.55</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1449,19 +1488,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K17">
-        <v>0.7446808510638298</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1473,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1481,13 +1520,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5423728813559322</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1499,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K18">
         <v>0.7407407407407407</v>
@@ -1531,13 +1570,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5348837209302325</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C19">
-        <v>276</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>276</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1549,19 +1588,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K19">
-        <v>0.7</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1573,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1581,13 +1620,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5167785234899329</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C20">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1599,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>13</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="K20">
-        <v>0.6984126984126984</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1623,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1631,13 +1670,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5098039215686274</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1649,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K21">
-        <v>0.696969696969697</v>
+        <v>0.725</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1673,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1681,13 +1720,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1699,19 +1738,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K22">
-        <v>0.6744186046511628</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1723,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1731,13 +1770,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4871794871794872</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1749,19 +1788,19 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>12</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L23">
         <v>20</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L23">
-        <v>32</v>
-      </c>
       <c r="M23">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1773,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1781,13 +1820,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4838709677419355</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1799,19 +1838,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K24">
-        <v>0.6571428571428571</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1823,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1831,13 +1870,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4533333333333333</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1849,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K25">
-        <v>0.6411764705882353</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L25">
-        <v>218</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>218</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1873,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>122</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1881,13 +1920,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.40625</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1899,19 +1938,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K26">
-        <v>0.6063829787234043</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L26">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1923,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1931,13 +1970,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4</v>
+        <v>0.4899328859060403</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1949,19 +1988,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1973,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>26</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1981,7 +2020,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3783783783783784</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C28">
         <v>14</v>
@@ -1999,19 +2038,19 @@
         <v>0</v>
       </c>
       <c r="H28">
+        <v>17</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="L28">
         <v>23</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K28">
-        <v>0.5966101694915255</v>
-      </c>
-      <c r="L28">
-        <v>176</v>
-      </c>
       <c r="M28">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2023,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2031,13 +2070,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.375</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2049,19 +2088,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K29">
-        <v>0.5909090909090909</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L29">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2073,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2081,37 +2120,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3636363636363636</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C30">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>20</v>
       </c>
-      <c r="D30">
-        <v>20</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>35</v>
-      </c>
       <c r="J30" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K30">
-        <v>0.5732217573221757</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L30">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="M30">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2123,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>102</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2131,13 +2170,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.358974358974359</v>
+        <v>0.44</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2149,19 +2188,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K31">
-        <v>0.5714285714285714</v>
+        <v>0.6234309623430963</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2173,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2181,13 +2220,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3111111111111111</v>
+        <v>0.4375</v>
       </c>
       <c r="C32">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2199,19 +2238,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K32">
-        <v>0.5571428571428572</v>
+        <v>0.62</v>
       </c>
       <c r="L32">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2223,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2231,13 +2270,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2987012987012987</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2249,19 +2288,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>0.54</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2273,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2281,13 +2320,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.257936507936508</v>
+        <v>0.4</v>
       </c>
       <c r="C34">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2299,19 +2338,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="K34">
-        <v>0.5168539325842697</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L34">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M34">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2323,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2331,7 +2370,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1875</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C35">
         <v>15</v>
@@ -2349,19 +2388,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K35">
-        <v>0.4848484848484849</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2373,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2381,13 +2420,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1849865951742627</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C36">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2399,19 +2438,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>304</v>
+        <v>23</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K36">
-        <v>0.4705882352941176</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L36">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="M36">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2423,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2431,13 +2470,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.08333333333333333</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C37">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2449,19 +2488,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>275</v>
+        <v>36</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K37">
-        <v>0.4642857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2473,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2481,13 +2520,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01981050818260121</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2499,19 +2538,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>1138</v>
+        <v>37</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K38">
-        <v>0.4047619047619048</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2523,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2531,37 +2570,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01064516129032258</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C39">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E39">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>3067</v>
+        <v>52</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K39">
-        <v>0.4</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L39">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="M39">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2573,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2581,37 +2620,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.00841908325537886</v>
+        <v>0.3</v>
       </c>
       <c r="C40">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D40">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E40">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>2120</v>
+        <v>63</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K40">
-        <v>0.34375</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L40">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2623,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2631,115 +2670,187 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004098360655737705</v>
+        <v>0.25</v>
       </c>
       <c r="C41">
+        <v>63</v>
+      </c>
+      <c r="D41">
+        <v>63</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>189</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K41">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="L41">
+        <v>27</v>
+      </c>
+      <c r="M41">
+        <v>27</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.2</v>
+      </c>
+      <c r="C42">
+        <v>16</v>
+      </c>
+      <c r="D42">
+        <v>16</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>64</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K42">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="L42">
         <v>13</v>
       </c>
-      <c r="D41">
-        <v>42</v>
-      </c>
-      <c r="E41">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F41">
-        <v>0.3100000000000001</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>3159</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K41">
-        <v>0.3424657534246575</v>
-      </c>
-      <c r="L41">
+      <c r="M42">
+        <v>13</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.1662198391420912</v>
+      </c>
+      <c r="C43">
+        <v>62</v>
+      </c>
+      <c r="D43">
+        <v>62</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>311</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K43">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="L43">
+        <v>20</v>
+      </c>
+      <c r="M43">
+        <v>20</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>25</v>
       </c>
-      <c r="M41">
-        <v>25</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K42">
-        <v>0.288135593220339</v>
-      </c>
-      <c r="L42">
-        <v>17</v>
-      </c>
-      <c r="M42">
-        <v>17</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K43">
-        <v>0.2786885245901639</v>
-      </c>
-      <c r="L43">
-        <v>17</v>
-      </c>
-      <c r="M43">
-        <v>17</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>44</v>
-      </c>
     </row>
     <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="C44">
+        <v>32</v>
+      </c>
+      <c r="D44">
+        <v>32</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>268</v>
+      </c>
       <c r="J44" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K44">
-        <v>0.2280701754385965</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2751,21 +2862,45 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.0155440414507772</v>
+      </c>
+      <c r="C45">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>21</v>
+      </c>
+      <c r="E45">
+        <v>0.14</v>
+      </c>
+      <c r="F45">
+        <v>0.86</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1140</v>
+      </c>
       <c r="J45" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K45">
-        <v>0.1923076923076923</v>
+        <v>0.421875</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2777,47 +2912,95 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.01290322580645161</v>
+      </c>
+      <c r="C46">
+        <v>40</v>
+      </c>
+      <c r="D46">
+        <v>47</v>
+      </c>
+      <c r="E46">
+        <v>0.15</v>
+      </c>
+      <c r="F46">
+        <v>0.85</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>3060</v>
+      </c>
       <c r="J46" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K46">
-        <v>0.1666666666666667</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M46">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N46">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.01123069723912026</v>
+      </c>
+      <c r="C47">
+        <v>24</v>
+      </c>
+      <c r="D47">
+        <v>30</v>
+      </c>
+      <c r="E47">
+        <v>0.2</v>
+      </c>
+      <c r="F47">
+        <v>0.8</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>2113</v>
+      </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K47">
-        <v>0.1048387096774194</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2829,21 +3012,45 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>111</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.005052099778970635</v>
+      </c>
+      <c r="C48">
+        <v>16</v>
+      </c>
+      <c r="D48">
+        <v>50</v>
+      </c>
+      <c r="E48">
+        <v>0.68</v>
+      </c>
+      <c r="F48">
+        <v>0.32</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>3151</v>
+      </c>
       <c r="J48" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K48">
-        <v>0.04297994269340974</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2855,21 +3062,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>334</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K49">
-        <v>0.04220779220779221</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2881,21 +3088,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>295</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K50">
-        <v>0.03125</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2907,59 +3114,215 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>403</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K51">
-        <v>0.01449275362318841</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N51">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
       <c r="O51">
-        <v>0.24</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>884</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="K52">
-        <v>0.009096612296110414</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="L52">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="N52">
-        <v>0.6899999999999999</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.3100000000000001</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>3159</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K53">
+        <v>0.1027027027027027</v>
+      </c>
+      <c r="L53">
+        <v>19</v>
+      </c>
+      <c r="M53">
+        <v>19</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K54">
+        <v>0.04844290657439446</v>
+      </c>
+      <c r="L54">
+        <v>14</v>
+      </c>
+      <c r="M54">
+        <v>14</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K55">
+        <v>0.03855421686746988</v>
+      </c>
+      <c r="L55">
+        <v>16</v>
+      </c>
+      <c r="M55">
+        <v>17</v>
+      </c>
+      <c r="N55">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O55">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K56">
+        <v>0.03724928366762178</v>
+      </c>
+      <c r="L56">
+        <v>13</v>
+      </c>
+      <c r="M56">
+        <v>13</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K57">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="L57">
+        <v>15</v>
+      </c>
+      <c r="M57">
+        <v>16</v>
+      </c>
+      <c r="N57">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O57">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K58">
+        <v>0.01067503924646782</v>
+      </c>
+      <c r="L58">
+        <v>34</v>
+      </c>
+      <c r="M58">
+        <v>50</v>
+      </c>
+      <c r="N58">
+        <v>0.68</v>
+      </c>
+      <c r="O58">
+        <v>0.32</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3151</v>
       </c>
     </row>
   </sheetData>
